--- a/natmiOut/OldD7/LR-pairs_lrc2p/S100a9-Tlr4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/S100a9-Tlr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Tlr4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.1851983261287</v>
+        <v>0.06313966666666666</v>
       </c>
       <c r="H2">
-        <v>2.1851983261287</v>
+        <v>0.189419</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.02041955056700611</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.02041955056700612</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.84419742399134</v>
+        <v>8.714516333333334</v>
       </c>
       <c r="N2">
-        <v>7.84419742399134</v>
+        <v>26.143549</v>
       </c>
       <c r="O2">
-        <v>0.1749951953901328</v>
+        <v>0.1832255053237971</v>
       </c>
       <c r="P2">
-        <v>0.1749951953901328</v>
+        <v>0.1832255053237971</v>
       </c>
       <c r="Q2">
-        <v>17.14112708072894</v>
+        <v>0.5502316564478889</v>
       </c>
       <c r="R2">
-        <v>17.14112708072894</v>
+        <v>4.952084908031</v>
       </c>
       <c r="S2">
-        <v>0.1749951953901328</v>
+        <v>0.003741382471124522</v>
       </c>
       <c r="T2">
-        <v>0.1749951953901328</v>
+        <v>0.003741382471124523</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -596,49 +596,49 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.1851983261287</v>
+        <v>0.06313966666666666</v>
       </c>
       <c r="H3">
-        <v>2.1851983261287</v>
+        <v>0.189419</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.02041955056700611</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.02041955056700612</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.4149132051113</v>
+        <v>16.48752133333333</v>
       </c>
       <c r="N3">
-        <v>16.4149132051113</v>
+        <v>49.462564</v>
       </c>
       <c r="O3">
-        <v>0.3661981957331846</v>
+        <v>0.3466554324170239</v>
       </c>
       <c r="P3">
-        <v>0.3661981957331846</v>
+        <v>0.346655432417024</v>
       </c>
       <c r="Q3">
-        <v>35.8698408593571</v>
+        <v>1.041016601146222</v>
       </c>
       <c r="R3">
-        <v>35.8698408593571</v>
+        <v>9.369149410316</v>
       </c>
       <c r="S3">
-        <v>0.3661981957331846</v>
+        <v>0.007078548131566788</v>
       </c>
       <c r="T3">
-        <v>0.3661981957331846</v>
+        <v>0.007078548131566793</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2.1851983261287</v>
+        <v>0.06313966666666666</v>
       </c>
       <c r="H4">
-        <v>2.1851983261287</v>
+        <v>0.189419</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.02041955056700611</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.02041955056700612</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.3607316076522</v>
+        <v>18.62376966666666</v>
       </c>
       <c r="N4">
-        <v>17.3607316076522</v>
+        <v>55.871309</v>
       </c>
       <c r="O4">
-        <v>0.3872983373040745</v>
+        <v>0.391570739865005</v>
       </c>
       <c r="P4">
-        <v>0.3872983373040745</v>
+        <v>0.391570739865005</v>
       </c>
       <c r="Q4">
-        <v>37.93664164941119</v>
+        <v>1.175898608830111</v>
       </c>
       <c r="R4">
-        <v>37.93664164941119</v>
+        <v>10.583087479471</v>
       </c>
       <c r="S4">
-        <v>0.3872983373040745</v>
+        <v>0.007995698523233464</v>
       </c>
       <c r="T4">
-        <v>0.3872983373040745</v>
+        <v>0.007995698523233466</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -720,49 +720,297 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>2.1851983261287</v>
+        <v>0.06313966666666666</v>
       </c>
       <c r="H5">
-        <v>2.1851983261287</v>
+        <v>0.189419</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.02041955056700611</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.02041955056700612</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.20537371562348</v>
+        <v>3.735891666666667</v>
       </c>
       <c r="N5">
-        <v>3.20537371562348</v>
+        <v>11.207675</v>
       </c>
       <c r="O5">
-        <v>0.07150827157260825</v>
+        <v>0.07854832239417409</v>
       </c>
       <c r="P5">
-        <v>0.07150827157260825</v>
+        <v>0.0785483223941741</v>
       </c>
       <c r="Q5">
-        <v>7.004377277997359</v>
+        <v>0.2358829545361111</v>
       </c>
       <c r="R5">
-        <v>7.004377277997359</v>
+        <v>2.122946590825</v>
       </c>
       <c r="S5">
-        <v>0.07150827157260825</v>
+        <v>0.001603921441081336</v>
       </c>
       <c r="T5">
-        <v>0.07150827157260825</v>
+        <v>0.001603921441081337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3.028978666666667</v>
+      </c>
+      <c r="H6">
+        <v>9.086936</v>
+      </c>
+      <c r="I6">
+        <v>0.9795804494329938</v>
+      </c>
+      <c r="J6">
+        <v>0.9795804494329939</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>8.714516333333334</v>
+      </c>
+      <c r="N6">
+        <v>26.143549</v>
+      </c>
+      <c r="O6">
+        <v>0.1832255053237971</v>
+      </c>
+      <c r="P6">
+        <v>0.1832255053237971</v>
+      </c>
+      <c r="Q6">
+        <v>26.39608406398489</v>
+      </c>
+      <c r="R6">
+        <v>237.564756575864</v>
+      </c>
+      <c r="S6">
+        <v>0.1794841228526725</v>
+      </c>
+      <c r="T6">
+        <v>0.1794841228526726</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3.028978666666667</v>
+      </c>
+      <c r="H7">
+        <v>9.086936</v>
+      </c>
+      <c r="I7">
+        <v>0.9795804494329938</v>
+      </c>
+      <c r="J7">
+        <v>0.9795804494329939</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>16.48752133333333</v>
+      </c>
+      <c r="N7">
+        <v>49.462564</v>
+      </c>
+      <c r="O7">
+        <v>0.3466554324170239</v>
+      </c>
+      <c r="P7">
+        <v>0.346655432417024</v>
+      </c>
+      <c r="Q7">
+        <v>49.94035038487822</v>
+      </c>
+      <c r="R7">
+        <v>449.463153463904</v>
+      </c>
+      <c r="S7">
+        <v>0.3395768842854571</v>
+      </c>
+      <c r="T7">
+        <v>0.3395768842854572</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3.028978666666667</v>
+      </c>
+      <c r="H8">
+        <v>9.086936</v>
+      </c>
+      <c r="I8">
+        <v>0.9795804494329938</v>
+      </c>
+      <c r="J8">
+        <v>0.9795804494329939</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>18.62376966666666</v>
+      </c>
+      <c r="N8">
+        <v>55.871309</v>
+      </c>
+      <c r="O8">
+        <v>0.391570739865005</v>
+      </c>
+      <c r="P8">
+        <v>0.391570739865005</v>
+      </c>
+      <c r="Q8">
+        <v>56.4110010132471</v>
+      </c>
+      <c r="R8">
+        <v>507.6990091192239</v>
+      </c>
+      <c r="S8">
+        <v>0.3835750413417714</v>
+      </c>
+      <c r="T8">
+        <v>0.3835750413417715</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.028978666666667</v>
+      </c>
+      <c r="H9">
+        <v>9.086936</v>
+      </c>
+      <c r="I9">
+        <v>0.9795804494329938</v>
+      </c>
+      <c r="J9">
+        <v>0.9795804494329939</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.735891666666667</v>
+      </c>
+      <c r="N9">
+        <v>11.207675</v>
+      </c>
+      <c r="O9">
+        <v>0.07854832239417409</v>
+      </c>
+      <c r="P9">
+        <v>0.0785483223941741</v>
+      </c>
+      <c r="Q9">
+        <v>11.31593615931111</v>
+      </c>
+      <c r="R9">
+        <v>101.8434254338</v>
+      </c>
+      <c r="S9">
+        <v>0.07694440095309274</v>
+      </c>
+      <c r="T9">
+        <v>0.07694440095309277</v>
       </c>
     </row>
   </sheetData>
